--- a/USB C-Rial Pro/USB C-Rial Pro/USB C-Rial Pro BOM.xlsx
+++ b/USB C-Rial Pro/USB C-Rial Pro/USB C-Rial Pro BOM.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\agk99\Documents\GitHub\Kicad\USB C-Rial Pro\USB C-Rial Pro\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E8144824-7E73-4C1F-A654-E0A155E14D69}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{C88D4B18-6CAB-417B-A42E-4D42EF2C8C1B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="21480" yWindow="-120" windowWidth="24240" windowHeight="13740"/>
+    <workbookView xWindow="810" yWindow="-120" windowWidth="20910" windowHeight="13740"/>
   </bookViews>
   <sheets>
     <sheet name="USB C-Rial Pro" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="95">
   <si>
     <t>Source:</t>
   </si>
@@ -58,6 +58,9 @@
     <t>Cmp name</t>
   </si>
   <si>
+    <t>Footprint</t>
+  </si>
+  <si>
     <t>Description</t>
   </si>
   <si>
@@ -73,6 +76,9 @@
     <t>C</t>
   </si>
   <si>
+    <t>Capacitor_SMD:C_0603_1608Metric</t>
+  </si>
+  <si>
     <t>Unpolarized capacitor</t>
   </si>
   <si>
@@ -97,6 +103,12 @@
     <t>C0603C100J5GACTU</t>
   </si>
   <si>
+    <t xml:space="preserve">C13, </t>
+  </si>
+  <si>
+    <t>0.01u</t>
+  </si>
+  <si>
     <t xml:space="preserve">D1, </t>
   </si>
   <si>
@@ -106,6 +118,9 @@
     <t>D_Zener_ALT</t>
   </si>
   <si>
+    <t>Diode_SMD:D_SOD-123</t>
+  </si>
+  <si>
     <t>Zener diode, filled shape</t>
   </si>
   <si>
@@ -118,6 +133,9 @@
     <t>D_Schottky</t>
   </si>
   <si>
+    <t>Diode_SMD:D_SOD-323F</t>
+  </si>
+  <si>
     <t>Schottky diode</t>
   </si>
   <si>
@@ -133,6 +151,9 @@
     <t>LED</t>
   </si>
   <si>
+    <t>LED_SMD:LED_0603_1608Metric</t>
+  </si>
+  <si>
     <t>Light emitting diode</t>
   </si>
   <si>
@@ -148,6 +169,9 @@
     <t>USB_C_Receptacle_USB2.0</t>
   </si>
   <si>
+    <t>Connector_USB:USB_C_Receptacle_Amphenol_12401610E4-2A</t>
+  </si>
+  <si>
     <t>USB 2.0-only Type-C Receptacle connector</t>
   </si>
   <si>
@@ -160,6 +184,9 @@
     <t>Conn_01x06</t>
   </si>
   <si>
+    <t>Connector_PinHeader_2.54mm:PinHeader_1x06_P2.54mm_Vertical</t>
+  </si>
+  <si>
     <t>Generic connector, single row, 01x06, script generated (kicad-library-utils/schlib/autogen/connector/)</t>
   </si>
   <si>
@@ -175,6 +202,9 @@
     <t>R_US</t>
   </si>
   <si>
+    <t>Resistor_SMD:R_0603_1608Metric</t>
+  </si>
+  <si>
     <t>Resistor, US symbol</t>
   </si>
   <si>
@@ -217,6 +247,9 @@
     <t>SW_SPDT</t>
   </si>
   <si>
+    <t>Button_Switch_SMD:SW_SPDT_CK-JS102011SAQN</t>
+  </si>
+  <si>
     <t>Switch, single pole double throw</t>
   </si>
   <si>
@@ -226,13 +259,13 @@
     <t xml:space="preserve">U1, </t>
   </si>
   <si>
-    <t>AMS1117-3.3</t>
-  </si>
-  <si>
-    <t>1A Low Dropout regulator, positive, 3.3V fixed output, SOT-223</t>
-  </si>
-  <si>
-    <t>AZ1117EH-3.3TRG1</t>
+    <t>SPX3819M5-L-3-3</t>
+  </si>
+  <si>
+    <t>Package_TO_SOT_SMD:SOT-23-5</t>
+  </si>
+  <si>
+    <t>500mA Low drop-out regulator, Fixed Output 3.3V, SOT-23-5</t>
   </si>
   <si>
     <t xml:space="preserve">U2, </t>
@@ -241,17 +274,44 @@
     <t>CY7C65213-28PVXI</t>
   </si>
   <si>
+    <t>Package_SO:SSOP-28_5.3x10.2mm_P0.65mm</t>
+  </si>
+  <si>
     <t>USB-UART LP Bridge Controller, full speed 12Mbps, +1.71V to 5.5V VDD, UART/RS232/RS422, SSOP-28</t>
+  </si>
+  <si>
+    <t>VJ0603G105KXJCW1BC</t>
+  </si>
+  <si>
+    <t>GRM188R61A106ME69D</t>
+  </si>
+  <si>
+    <t>SUBSTITUTIONS ARE PERMITTED ON RESISTORS, VALUE AND FOOTPRINT MUST MATCH, DIFFERENT MPN CAN BE USED</t>
+  </si>
+  <si>
+    <t>SUBSTITUTIONS ARE PERMITTED ON CAPACITORS, VALUE AND FOOTPRINT MUST MATCH, VOLTAGE RATING MUST EXCEED 10VDC</t>
+  </si>
+  <si>
+    <t>AC0603KRX7R9BB104</t>
+  </si>
+  <si>
+    <t>GCM188R71H103KA37D</t>
+  </si>
+  <si>
+    <t>LTST-C190CKT</t>
+  </si>
+  <si>
+    <t>LTST-C190GKT</t>
+  </si>
+  <si>
+    <t>SUBSITUTE PART: EXAR SPX3819M5-L-3-3/TR</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="00000"/>
-  </numFmts>
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -387,6 +447,12 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="12"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
       <b/>
       <strike/>
       <sz val="11"/>
@@ -578,18 +644,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="19">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -705,9 +771,15 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -720,12 +792,39 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
+      <top/>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -769,30 +868,10 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
       <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
       <top/>
       <bottom style="thin">
         <color indexed="64"/>
@@ -844,35 +923,57 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="22" fontId="0" fillId="34" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="18" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="22" fontId="0" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="18" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1228,455 +1329,687 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F24"/>
+  <dimension ref="B1:M25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A4" sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.28515625" customWidth="1"/>
-    <col min="2" max="2" width="12" customWidth="1"/>
-    <col min="3" max="4" width="24.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="25.42578125" customWidth="1"/>
-    <col min="6" max="6" width="93.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" style="3"/>
+    <col min="2" max="2" width="18" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" style="3"/>
+    <col min="4" max="5" width="24.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="42.42578125" style="3" customWidth="1"/>
+    <col min="7" max="7" width="50" style="3" customWidth="1"/>
+    <col min="8" max="8" width="37.140625" style="3" customWidth="1"/>
+    <col min="9" max="9" width="15.28515625" style="3" customWidth="1"/>
+    <col min="10" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="5"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="12"/>
+    </row>
+    <row r="2" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="7">
-        <v>43627.070277777777</v>
-      </c>
-      <c r="C2" s="7"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="9"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
+      <c r="C2" s="4">
+        <v>43632.923437500001</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="12"/>
+    </row>
+    <row r="3" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="C3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="9"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
+      <c r="M3" s="12"/>
+    </row>
+    <row r="4" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="C4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="9"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="10" t="s">
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
+      <c r="M4" s="12"/>
+    </row>
+    <row r="5" spans="2:13" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="11">
-        <v>29</v>
-      </c>
-      <c r="C5" s="11"/>
-      <c r="D5" s="11"/>
-      <c r="E5" s="11"/>
-      <c r="F5" s="12"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
+      <c r="C5" s="10">
+        <v>30</v>
+      </c>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="10"/>
+      <c r="I5" s="10"/>
+      <c r="J5" s="10"/>
+      <c r="K5" s="10"/>
+      <c r="L5" s="10"/>
+      <c r="M5" s="11"/>
+    </row>
+    <row r="6" spans="2:13" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="C6" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="D6" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="E6" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="F6" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G6" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="F6" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
+      <c r="H6" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="1">
+      <c r="I6" s="9"/>
+      <c r="J6" s="9"/>
+      <c r="K6" s="9"/>
+      <c r="L6" s="9"/>
+      <c r="M6" s="9"/>
+    </row>
+    <row r="7" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="1">
         <v>5</v>
-      </c>
-      <c r="C7" s="17" t="s">
-        <v>15</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E7" s="1"/>
+      <c r="E7" s="1" t="s">
+        <v>17</v>
+      </c>
       <c r="F7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H7" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="I7" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="J7" s="15"/>
+      <c r="K7" s="15"/>
+      <c r="L7" s="15"/>
+      <c r="M7" s="16"/>
+    </row>
+    <row r="8" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B8" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="1">
+        <v>2</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
+      <c r="F8" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B8" s="1">
+      <c r="G8" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H8" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="I8" s="17"/>
+      <c r="J8" s="18"/>
+      <c r="K8" s="18"/>
+      <c r="L8" s="18"/>
+      <c r="M8" s="19"/>
+    </row>
+    <row r="9" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B9" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" s="1">
+        <v>3</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H9" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="I9" s="17"/>
+      <c r="J9" s="18"/>
+      <c r="K9" s="18"/>
+      <c r="L9" s="18"/>
+      <c r="M9" s="19"/>
+    </row>
+    <row r="10" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B10" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" s="1">
         <v>2</v>
       </c>
-      <c r="C8" s="17" t="s">
+      <c r="D10" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G10" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D8" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1" t="s">
+      <c r="H10" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I10" s="17"/>
+      <c r="J10" s="18"/>
+      <c r="K10" s="18"/>
+      <c r="L10" s="18"/>
+      <c r="M10" s="19"/>
+    </row>
+    <row r="11" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B11" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C11" s="1">
+        <v>1</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E11" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B9" s="1">
-        <v>3</v>
-      </c>
-      <c r="C9" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B10" s="1">
-        <v>2</v>
-      </c>
-      <c r="C10" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B11" s="1">
+      <c r="F11" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H11" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="I11" s="20"/>
+      <c r="J11" s="21"/>
+      <c r="K11" s="21"/>
+      <c r="L11" s="21"/>
+      <c r="M11" s="22"/>
+    </row>
+    <row r="12" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B12" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C12" s="1">
         <v>1</v>
       </c>
-      <c r="C11" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B12" s="1">
-        <v>2</v>
-      </c>
-      <c r="C12" s="17" t="s">
+      <c r="D12" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="E12" s="1" t="s">
         <v>31</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>33</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
+      <c r="G12" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I12" s="6"/>
+      <c r="J12" s="6"/>
+      <c r="K12" s="6"/>
+      <c r="L12" s="6"/>
+      <c r="M12" s="6"/>
+    </row>
+    <row r="13" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B13" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B13" s="1">
-        <v>1</v>
-      </c>
-      <c r="C13" s="17" t="s">
+      <c r="C13" s="1">
+        <v>2</v>
+      </c>
+      <c r="D13" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="E13" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="E13" s="1"/>
       <c r="F13" s="1" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
+      <c r="G13" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B14" s="1">
+      <c r="H13" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I13" s="6"/>
+      <c r="J13" s="6"/>
+      <c r="K13" s="6"/>
+      <c r="L13" s="6"/>
+      <c r="M13" s="6"/>
+    </row>
+    <row r="14" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B14" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C14" s="1">
         <v>1</v>
       </c>
-      <c r="C14" s="17" t="s">
-        <v>39</v>
-      </c>
       <c r="D14" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="E14" s="1"/>
+        <v>41</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>42</v>
+      </c>
       <c r="F14" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B15" s="1">
+        <v>43</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="H14" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="I14" s="6"/>
+      <c r="J14" s="6"/>
+      <c r="K14" s="6"/>
+      <c r="L14" s="6"/>
+      <c r="M14" s="6"/>
+    </row>
+    <row r="15" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B15" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C15" s="1">
         <v>1</v>
       </c>
-      <c r="C15" s="17" t="s">
-        <v>41</v>
-      </c>
       <c r="D15" s="1" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="E15" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F15" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="F15" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="13" t="s">
+      <c r="G15" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B16" s="13">
+      <c r="H15" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="I15" s="6"/>
+      <c r="J15" s="6"/>
+      <c r="K15" s="6"/>
+      <c r="L15" s="6"/>
+      <c r="M15" s="6"/>
+    </row>
+    <row r="16" spans="2:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="B16" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C16" s="1">
         <v>1</v>
       </c>
-      <c r="C16" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="D16" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="E16" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="F16" s="13" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
+      <c r="D16" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B17" s="1">
+      <c r="E16" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="I16" s="6"/>
+      <c r="J16" s="6"/>
+      <c r="K16" s="6"/>
+      <c r="L16" s="6"/>
+      <c r="M16" s="6"/>
+    </row>
+    <row r="17" spans="2:13" s="24" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="B17" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="C17" s="23">
+        <v>1</v>
+      </c>
+      <c r="D17" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="E17" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="F17" s="23" t="s">
+        <v>54</v>
+      </c>
+      <c r="G17" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="H17" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="I17" s="25"/>
+      <c r="J17" s="25"/>
+      <c r="K17" s="25"/>
+      <c r="L17" s="25"/>
+      <c r="M17" s="25"/>
+    </row>
+    <row r="18" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B18" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C18" s="1">
         <v>2</v>
       </c>
-      <c r="C17" s="17" t="s">
-        <v>49</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="B18" s="1">
+      <c r="D18" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="I18" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="J18" s="15"/>
+      <c r="K18" s="15"/>
+      <c r="L18" s="15"/>
+      <c r="M18" s="16"/>
+    </row>
+    <row r="19" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B19" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C19" s="1">
         <v>1</v>
       </c>
-      <c r="C18" s="17" t="s">
-        <v>54</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
+      <c r="D19" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="I19" s="17"/>
+      <c r="J19" s="18"/>
+      <c r="K19" s="18"/>
+      <c r="L19" s="18"/>
+      <c r="M19" s="19"/>
+    </row>
+    <row r="20" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B20" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C20" s="1">
+        <v>1</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="I20" s="17"/>
+      <c r="J20" s="18"/>
+      <c r="K20" s="18"/>
+      <c r="L20" s="18"/>
+      <c r="M20" s="19"/>
+    </row>
+    <row r="21" spans="2:13" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="23" t="s">
+        <v>69</v>
+      </c>
+      <c r="C21" s="23">
+        <v>1</v>
+      </c>
+      <c r="D21" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="E21" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="F21" s="23" t="s">
+        <v>60</v>
+      </c>
+      <c r="G21" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="H21" s="23" t="s">
         <v>56</v>
       </c>
-      <c r="B19" s="1">
+      <c r="I21" s="17"/>
+      <c r="J21" s="18"/>
+      <c r="K21" s="18"/>
+      <c r="L21" s="18"/>
+      <c r="M21" s="19"/>
+    </row>
+    <row r="22" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B22" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C22" s="1">
+        <v>2</v>
+      </c>
+      <c r="D22" s="1">
+        <v>470</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="I22" s="20"/>
+      <c r="J22" s="21"/>
+      <c r="K22" s="21"/>
+      <c r="L22" s="21"/>
+      <c r="M22" s="22"/>
+    </row>
+    <row r="23" spans="2:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="B23" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C23" s="1">
         <v>1</v>
       </c>
-      <c r="C19" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="15" t="s">
-        <v>59</v>
-      </c>
-      <c r="B20" s="15">
+      <c r="D23" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="I23" s="6"/>
+      <c r="J23" s="6"/>
+      <c r="K23" s="6"/>
+      <c r="L23" s="6"/>
+      <c r="M23" s="6"/>
+    </row>
+    <row r="24" spans="2:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="B24" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C24" s="1">
         <v>1</v>
       </c>
-      <c r="C20" s="19" t="s">
-        <v>60</v>
-      </c>
-      <c r="D20" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="E20" s="15" t="s">
-        <v>47</v>
-      </c>
-      <c r="F20" s="15" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="B21" s="1">
-        <v>2</v>
-      </c>
-      <c r="C21" s="17">
-        <v>470</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="B22" s="1">
+      <c r="D24" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="I24" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="J24" s="6"/>
+      <c r="K24" s="6"/>
+      <c r="L24" s="6"/>
+      <c r="M24" s="6"/>
+    </row>
+    <row r="25" spans="2:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="B25" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C25" s="1">
         <v>1</v>
       </c>
-      <c r="C22" s="17" t="s">
-        <v>64</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="B23" s="1">
-        <v>1</v>
-      </c>
-      <c r="C23" s="17" t="s">
-        <v>68</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="B24" s="1">
-        <v>1</v>
-      </c>
-      <c r="C24" s="17" t="s">
-        <v>72</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>73</v>
-      </c>
+      <c r="D25" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="I25" s="6"/>
+      <c r="J25" s="6"/>
+      <c r="K25" s="6"/>
+      <c r="L25" s="6"/>
+      <c r="M25" s="6"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="B2:C2"/>
+  <mergeCells count="2">
+    <mergeCell ref="I18:M22"/>
+    <mergeCell ref="I7:M11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>